--- a/dup/dup_Pasar_Tradisional.xlsx
+++ b/dup/dup_Pasar_Tradisional.xlsx
@@ -1,141 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\google_maps_scraper\dup\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7105F07-EE21-4D3B-A550-0DC107258AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="4428" yWindow="1704" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>phone_number</t>
-  </si>
-  <si>
-    <t>reviews_count</t>
-  </si>
-  <si>
-    <t>reviews_average</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>is_permanently_closed</t>
-  </si>
-  <si>
-    <t>gmaps_link</t>
-  </si>
-  <si>
-    <t>latest_review_date</t>
-  </si>
-  <si>
-    <t>Kuliner Pasar Kliwon (KPK) Berbah</t>
-  </si>
-  <si>
-    <t>Jl. Raya Berbah No.4, Sumber Kidul, Kalitirto, Kec. Berbah, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55573</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Kuliner+Pasar+Kliwon+(KPK)+Berbah/@-7.8050951,110.3733318,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a50bc8afc4065:0xb08ff6e54085666c!8m2!3d-7.8050951!4d110.4454296!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhYMXA1VURaQlJSQULgAQD6AQQIABAT!16s%2Fg%2F11c0r2y3z2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>4 bulan lalu</t>
-  </si>
-  <si>
-    <t>Pasar Ngino</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Pasar+Ngino/@-7.7081867,110.2261762,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af5db1d3bf3bd:0x799d7e1ba1e66cc6!8m2!3d-7.7081867!4d110.298274!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlhlRGhRY210QlJSQULgAQD6AQQIABAy!16s%2Fg%2F11cjh_cff7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>6 hari lalu</t>
-  </si>
-  <si>
-    <t>Pasar Pahing Tegalsari</t>
-  </si>
-  <si>
-    <t>5CFQ+37R, Dawukan, Sendangtirto, Kec. Berbah, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55573</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Pasar+Pahing+Tegalsari/@-7.8272636,110.3660583,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a50da0a99621b:0xb0af322fc4470cd0!8m2!3d-7.8272636!4d110.4381561!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmhPWFZ4UW1WUkVBReABAPoBBAgaEEQ!16s%2Fg%2F11c2ntv8qz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>3 bulan lalu</t>
-  </si>
-  <si>
-    <t>Pasar Jambon sindumartani</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Pasar+Jambon+sindumartani/@-7.6943163,110.4039609,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5c89bd2547bf:0x7667b44a5f1d5864!8m2!3d-7.6943163!4d110.4760587!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVPV0ZpWlc5QlJSQULgAQD6AQQIbhA_!16s%2Fg%2F11b6_rlvzn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>Pasar Kenaran꧋ꦥꦱꦂꦏꦼꦤꦫꦤ꧀</t>
-  </si>
-  <si>
-    <t>5GV2+8QV, Kenaran, Sumberharjo, Kec. Prambanan, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55572</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Pasar+Kenaran%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BC%EA%A6%A4%EA%A6%AB%EA%A6%A4%EA%A7%80/@-7.806631,110.4298245,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a50144899f12b:0xb6d3bc55be6d7599!8m2!3d-7.806631!4d110.5019223!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTklkRFoxTUdWM0VBReABAPoBBAgAECo!16s%2Fg%2F11cn6f_m19?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>sebulan lalu</t>
-  </si>
-  <si>
-    <t>Pasar Sentral Umum Ambarketawang</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Pasar+Sentral+Umum+Ambarketawang/@-7.8017988,110.2520522,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af81e8c091b59:0x519e82906922b3e1!8m2!3d-7.8017988!4d110.32415!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFNM0ptYjFSbkVBReABAPoBBAgAEBE!16s%2Fg%2F1pzrm4gbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-  </si>
-  <si>
-    <t>4 hari lalu</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -150,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -474,208 +420,285 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reviews_average</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>latitude</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>longitude</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>is_permanently_closed</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>gmaps_link</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>latest_review_date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Kuliner Pasar Kliwon (KPK) Berbah</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jl. Raya Berbah No.4, Sumber Kidul, Kalitirto, Kec. Berbah, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55573</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-7.805095</v>
+      </c>
+      <c r="G2" t="n">
+        <v>110.44543</v>
+      </c>
+      <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kuliner+Pasar+Kliwon+(KPK)+Berbah/@-7.8050951,110.3733318,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a50bc8afc4065:0xb08ff6e54085666c!8m2!3d-7.8050951!4d110.4454296!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhYMXA1VURaQlJSQULgAQD6AQQIABAT!16s%2Fg%2F11c0r2y3z2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>4 bulan lalu</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pasar Ngino</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jl. Raya Berbah No.4, Sumber Kidul, Kalitirto, Kec. Berbah, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55573</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
         <v>4.2</v>
       </c>
-      <c r="G2">
-        <v>-7.8050949999999997</v>
-      </c>
-      <c r="H2">
-        <v>110.44543</v>
-      </c>
-      <c r="I2" t="b">
+      <c r="F3" t="n">
+        <v>-7.708187</v>
+      </c>
+      <c r="G3" t="n">
+        <v>110.298274</v>
+      </c>
+      <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngino/@-7.7081867,110.2261762,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af5db1d3bf3bd:0x799d7e1ba1e66cc6!8m2!3d-7.7081867!4d110.298274!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlhlRGhRY210QlJSQULgAQD6AQQIABAy!16s%2Fg%2F11cjh_cff7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>6 hari lalu</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pasar Pahing Tegalsari</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5CFQ+37R, Dawukan, Sendangtirto, Kec. Berbah, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55573</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-7.827264</v>
+      </c>
+      <c r="G4" t="n">
+        <v>110.438156</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Pahing+Tegalsari/@-7.8272636,110.3660583,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a50da0a99621b:0xb0af322fc4470cd0!8m2!3d-7.8272636!4d110.4381561!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmhPWFZ4UW1WUkVBReABAPoBBAgaEEQ!16s%2Fg%2F11c2ntv8qz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3 bulan lalu</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pasar Jambon sindumartani</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5CFQ+37R, Dawukan, Sendangtirto, Kec. Berbah, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55573</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-7.694316</v>
+      </c>
+      <c r="G5" t="n">
+        <v>110.476059</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Jambon+sindumartani/@-7.6943163,110.4039609,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a5c89bd2547bf:0x7667b44a5f1d5864!8m2!3d-7.6943163!4d110.4760587!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVPV0ZpWlc5QlJSQULgAQD6AQQIbhA_!16s%2Fg%2F11b6_rlvzn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>6 hari lalu</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pasar Kenaran꧋ꦥꦱꦂꦏꦼꦤꦫꦤ꧀</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5GV2+8QV, Kenaran, Sumberharjo, Kec. Prambanan, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55572</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
         <v>4.2</v>
       </c>
-      <c r="G3">
-        <v>-7.7081869999999997</v>
-      </c>
-      <c r="H3">
-        <v>110.29827400000001</v>
-      </c>
-      <c r="I3" t="b">
+      <c r="F6" t="n">
+        <v>-7.806631</v>
+      </c>
+      <c r="G6" t="n">
+        <v>110.501922</v>
+      </c>
+      <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kenaran%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BC%EA%A6%A4%EA%A6%AB%EA%A6%A4%EA%A7%80/@-7.806631,110.4298245,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7a50144899f12b:0xb6d3bc55be6d7599!8m2!3d-7.806631!4d110.5019223!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSARJ0cmFkaXRpb25hbF9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTklkRFoxTUdWM0VBReABAPoBBAgAECo!16s%2Fg%2F11cn6f_m19?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>sebulan lalu</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>4.5</v>
-      </c>
-      <c r="G4">
-        <v>-7.8272640000000004</v>
-      </c>
-      <c r="H4">
-        <v>110.43815600000001</v>
-      </c>
-      <c r="I4" t="b">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pasar Sentral Umum Ambarketawang</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5GV2+8QV, Kenaran, Sumberharjo, Kec. Prambanan, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55572</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-7.801799</v>
+      </c>
+      <c r="G7" t="n">
+        <v>110.32415</v>
+      </c>
+      <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
-        <v>4.5</v>
-      </c>
-      <c r="G5">
-        <v>-7.6943159999999997</v>
-      </c>
-      <c r="H5">
-        <v>110.47605900000001</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>4.2</v>
-      </c>
-      <c r="G6">
-        <v>-7.8066310000000003</v>
-      </c>
-      <c r="H6">
-        <v>110.50192199999999</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>4.2</v>
-      </c>
-      <c r="G7">
-        <v>-7.8017989999999999</v>
-      </c>
-      <c r="H7">
-        <v>110.32415</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sentral+Umum+Ambarketawang/@-7.8017988,110.2520522,13z/data=!4m11!1m3!2m2!1sSleman+Traditional+Market!6e1!3m6!1s0x2e7af81e8c091b59:0x519e82906922b3e1!8m2!3d-7.8017988!4d110.32415!15sChlTbGVtYW4gVHJhZGl0aW9uYWwgTWFya2V0WhsiGXNsZW1hbiB0cmFkaXRpb25hbCBtYXJrZXSSAQZtYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFNM0ptYjFSbkVBReABAPoBBAgAEBE!16s%2Fg%2F1pzrm4gbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>4 hari lalu</t>
+        </is>
       </c>
     </row>
   </sheetData>
